--- a/results/Word frequency 6/Results_freq_6.xlsx
+++ b/results/Word frequency 6/Results_freq_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaetano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s277939_studenti_polito_it/Documents/Desktop/2022-project-MLAI/MLAI_DomainToText/results/Word frequency 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152B6D5-5F32-4B54-8AD9-A6FA1B85E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9152B6D5-5F32-4B54-8AD9-A6FA1B85E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81848E79-3C75-48CB-BCE1-383D73423672}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -512,15 +512,15 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>70.459999999999994</v>
       </c>
@@ -548,7 +548,7 @@
         <v>62.61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>71.58</v>
       </c>
@@ -562,34 +562,42 @@
         <v>62.59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>69.73</v>
+      </c>
+      <c r="B4" s="6">
+        <v>59.77</v>
+      </c>
+      <c r="C4" s="6">
+        <v>95.39</v>
+      </c>
+      <c r="D4" s="7">
+        <v>61.39</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>AVERAGE(A2:A4)</f>
-        <v>71.02</v>
+        <v>70.589999999999989</v>
       </c>
       <c r="B5" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>58.19</v>
+        <v>58.716666666666669</v>
       </c>
       <c r="C5" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>95.509999999999991</v>
+        <v>95.469999999999985</v>
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>62.6</v>
+        <v>62.196666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G23" s="8"/>
     </row>
   </sheetData>

--- a/results/Word frequency 6/Results_freq_6.xlsx
+++ b/results/Word frequency 6/Results_freq_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/s277939_studenti_polito_it/Documents/Desktop/2022-project-MLAI/MLAI_DomainToText/results/Word frequency 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Polito\Magistrale\Machine learning and Artificial intelligence\MLAI_DomainToText\results\Word frequency 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9152B6D5-5F32-4B54-8AD9-A6FA1B85E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81848E79-3C75-48CB-BCE1-383D73423672}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264A553-218F-494D-8F8C-FEEBEF594962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE723A0-E2F2-4B25-8F2A-0FBE17E7FE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -512,15 +512,15 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>70.459999999999994</v>
       </c>
@@ -548,7 +548,7 @@
         <v>62.61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>71.58</v>
       </c>
@@ -562,7 +562,7 @@
         <v>62.59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>69.73</v>
       </c>
@@ -576,7 +576,7 @@
         <v>61.39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>AVERAGE(A2:A4)</f>
         <v>70.589999999999989</v>
@@ -594,10 +594,28 @@
         <v>62.196666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>_xlfn.VAR.P(A2:A4)</f>
+        <v>0.57886666666666375</v>
+      </c>
+      <c r="B7" s="1">
+        <f>_xlfn.VAR.P(B2:B4)</f>
+        <v>0.56602222222222343</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.VAR.P(C2:C4)</f>
+        <v>5.5999999999994769E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f>_xlfn.VAR.P(D2:D4)</f>
+        <v>0.32542222222222267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="8"/>
     </row>
   </sheetData>
